--- a/results/comparison_45_12_12.xlsx
+++ b/results/comparison_45_12_12.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Filename</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>0_data</t>
+  </si>
+  <si>
+    <t>40284.90552</t>
   </si>
   <si>
     <t>1_data</t>
@@ -81,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +95,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,155 +562,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,17 +1070,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="18.9203539823009" customWidth="1"/>
-    <col min="3" max="3" width="15.3451327433628" customWidth="1"/>
-    <col min="4" max="4" width="18.9203539823009" customWidth="1"/>
-    <col min="5" max="5" width="20.3893805309735" customWidth="1"/>
-    <col min="6" max="6" width="26.6902654867257" customWidth="1"/>
+    <col min="1" max="1" width="19.5221238938053" customWidth="1"/>
+    <col min="2" max="2" width="18.6548672566372" customWidth="1"/>
+    <col min="3" max="3" width="17.929203539823" customWidth="1"/>
+    <col min="4" max="4" width="18.7964601769912" customWidth="1"/>
+    <col min="5" max="5" width="15.9380530973451" customWidth="1"/>
+    <col min="6" max="6" width="14.8761061946903" customWidth="1"/>
+    <col min="7" max="7" width="15.212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1111,8 +1117,8 @@
       <c r="C2">
         <v>9203.43</v>
       </c>
-      <c r="D2">
-        <v>50284.9055240635</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
         <v>411.435483870968</v>
@@ -1126,30 +1132,30 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>9974.30827586207</v>
+        <v>9606.63314285714</v>
       </c>
       <c r="C3">
-        <v>9528.12</v>
+        <v>9318.92</v>
       </c>
       <c r="D3">
-        <v>30336.1439246135</v>
+        <v>21699.3234844081</v>
       </c>
       <c r="E3">
-        <v>466.293103448276</v>
-      </c>
-      <c r="F3">
-        <v>377.5</v>
+        <v>450.928571428571</v>
+      </c>
+      <c r="F3" s="3">
+        <v>345.5</v>
       </c>
       <c r="G3">
-        <v>7216.71581450654</v>
+        <v>6002.35918367347</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>10532.5708108108</v>
@@ -1172,7 +1178,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>9946.68548387097</v>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>10461.9389655172</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>10480.2140625</v>
@@ -1241,25 +1247,25 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>9946.72967741935</v>
+        <v>9618.00765957447</v>
       </c>
       <c r="C8">
-        <v>9506.68</v>
+        <v>9099.44</v>
       </c>
       <c r="D8">
-        <v>38841.094299896</v>
+        <v>32375.2771115437</v>
       </c>
       <c r="E8">
-        <v>478.338709677419</v>
+        <v>444.904255319149</v>
       </c>
       <c r="F8">
-        <v>388.5</v>
+        <v>342.5</v>
       </c>
       <c r="G8">
-        <v>4698.65140478668</v>
+        <v>4930.15572657311</v>
       </c>
     </row>
   </sheetData>
